--- a/src/test_report.xlsx
+++ b/src/test_report.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="740" yWindow="440" windowWidth="24860" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="绘图性能" sheetId="1" r:id="rId1"/>
+    <sheet name="动画性能" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -58,25 +58,17 @@
   </si>
   <si>
     <t>绘图性能 / 个/ms</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -102,6 +94,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -224,18 +234,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -244,21 +256,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -327,7 +341,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$C$1</c:f>
+              <c:f>绘图性能!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -348,7 +362,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>工作表1!$A$2:$B$9</c:f>
+              <c:f>绘图性能!$A$2:$B$9</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -396,7 +410,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$9</c:f>
+              <c:f>绘图性能!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -407,10 +421,10 @@
                   <c:v>624.9375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.325</c:v>
+                  <c:v>249.975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.66</c:v>
+                  <c:v>1666.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>238.0714285714286</c:v>
@@ -674,7 +688,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表2!$C$1</c:f>
+              <c:f>动画性能!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -695,7 +709,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>工作表2!$A$2:$B$9</c:f>
+              <c:f>动画性能!$A$2:$B$9</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -743,7 +757,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表2!$C$2:$C$9</c:f>
+              <c:f>动画性能!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -752,6 +766,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>60.0</c:v>
@@ -774,7 +794,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表2!$D$1</c:f>
+              <c:f>动画性能!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -795,7 +815,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>工作表2!$A$2:$B$9</c:f>
+              <c:f>动画性能!$A$2:$B$9</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -843,7 +863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表2!$D$2:$D$9</c:f>
+              <c:f>动画性能!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -852,6 +872,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>60.0</c:v>
@@ -874,7 +900,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表2!$E$1</c:f>
+              <c:f>动画性能!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -895,7 +921,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>工作表2!$A$2:$B$9</c:f>
+              <c:f>动画性能!$A$2:$B$9</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -943,7 +969,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表2!$E$2:$E$9</c:f>
+              <c:f>动画性能!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -952,6 +978,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>56.0</c:v>
@@ -974,7 +1006,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表2!$F$1</c:f>
+              <c:f>动画性能!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -995,7 +1027,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>工作表2!$A$2:$B$9</c:f>
+              <c:f>动画性能!$A$2:$B$9</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -1043,7 +1075,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表2!$F$2:$F$9</c:f>
+              <c:f>动画性能!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1052,6 +1084,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>38.0</c:v>
@@ -2688,7 +2726,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2710,7 +2748,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2728,7 +2766,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2744,7 +2782,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2752,33 +2790,33 @@
       </c>
       <c r="C4" s="4">
         <f>9999/D4</f>
-        <v>83.325000000000003</v>
+        <v>249.97499999999999</v>
       </c>
       <c r="D4" s="4">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4">
         <f>9999/E5</f>
-        <v>66.66</v>
-      </c>
-      <c r="D5" s="6">
-        <v>250</v>
-      </c>
-      <c r="E5" s="6">
-        <v>150</v>
+        <v>1666.5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>78</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2796,7 +2834,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2850,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2830,7 +2868,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2852,7 +2890,7 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2863,7 +2901,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2885,7 +2923,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2905,7 +2943,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2923,29 +2961,45 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="4">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="5">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5">
+        <v>60</v>
+      </c>
+      <c r="E5" s="5">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2965,7 +3019,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2983,7 +3037,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3003,7 +3057,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -3027,7 +3081,7 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/test_report.xlsx
+++ b/src/test_report.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="440" windowWidth="24860" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="440" windowWidth="24860" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="绘图性能" sheetId="1" r:id="rId1"/>
-    <sheet name="动画性能" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId2"/>
+    <sheet name="动画性能" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -234,8 +235,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -269,10 +272,12 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2725,7 +2730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
@@ -2898,6 +2903,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:GI1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
